--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009B9BF3-3CB7-4FE9-92E0-4BEE305B7DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198DD0E-2503-452E-A05C-60E59C12465B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>品质</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Quality</t>
@@ -493,18 +487,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ruaishenzhang</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>xianglongzhang</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>liumiashenjian</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>dugujiujian</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -522,6 +508,42 @@
   </si>
   <si>
     <t>yijinjing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KongfuName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rulaishenzhang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianshanzhemeishou</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>liumaishenjian</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -793,52 +815,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1143,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1159,693 +1181,792 @@
     <col min="5" max="5" width="39.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1001</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="H5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1002</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="H6" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1003</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="H7" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1004</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="H8" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1005</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="H9" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1006</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="H10" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>1007</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
       <c r="G11" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="H11" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>1008</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
       <c r="G12" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="H12" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1009</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="H13" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1010</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
       <c r="G14" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="H14" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1011</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
       <c r="G15" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="H15" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1012</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="H16" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>1013</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="H17" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1014</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="H18" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1015</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H19" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1016</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="H20" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>1017</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="H21" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>1018</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="H22" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="H23" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>1020</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>1021</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>1022</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="H26" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>1023</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>1024</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>1025</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="H29" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1026</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>1027</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="H31" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>1028</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="10"/>
+        <v>95</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3000</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
@@ -1873,293 +1994,298 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="16" t="s">
+    </row>
+    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="12" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G4:G9"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:O12"/>
@@ -2171,11 +2297,6 @@
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="J4:J9"/>
     <mergeCell ref="H4:I9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G4:G9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="14500"/>
+    <workbookView windowWidth="25770" windowHeight="13880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -60,13 +60,13 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>AtkRange</t>
+    <t>Addition</t>
   </si>
   <si>
     <t>UpgradeExp</t>
   </si>
   <si>
-    <t>降龙十八掌1</t>
+    <t>降龙十八掌</t>
   </si>
   <si>
     <t>Normal</t>
@@ -81,7 +81,7 @@
     <t>1;2;3;4;5;6;7;8</t>
   </si>
   <si>
-    <t>降龙十八掌2</t>
+    <t>凌波微步</t>
   </si>
   <si>
     <t>Super</t>
@@ -93,7 +93,7 @@
     <t>1.2|1.4|1.6|1.9|2.2|2.5|3|3.5|4</t>
   </si>
   <si>
-    <t>降龙十八掌3</t>
+    <t>武林秘籍</t>
   </si>
   <si>
     <t>Master</t>
@@ -105,13 +105,10 @@
     <t>1.3|1.6|1.9|2.4|2.9|3.4|4.2|5|5.8</t>
   </si>
   <si>
-    <t>降龙十八掌4</t>
-  </si>
-  <si>
     <t>降龙十八掌14</t>
   </si>
   <si>
-    <t>降龙十八掌5</t>
+    <t>基本拳脚</t>
   </si>
   <si>
     <t>降龙十八掌15</t>
@@ -301,10 +298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -343,7 +340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,45 +369,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,7 +407,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +446,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,181 +497,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,15 +821,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,17 +849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,8 +876,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +928,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,134 +943,134 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,6 +1128,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1489,7 +1489,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1575,7 +1575,7 @@
       <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -1583,19 +1583,19 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
@@ -1603,19 +1603,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
@@ -1623,19 +1623,19 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
@@ -1643,19 +1643,19 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
@@ -1663,19 +1663,19 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20">
+      <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
@@ -1683,19 +1683,19 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20">
+      <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
@@ -1703,19 +1703,19 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20">
+      <c r="A11" s="21">
         <v>7</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
@@ -1723,19 +1723,19 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20">
+      <c r="A12" s="21">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
@@ -1743,19 +1743,19 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20">
+      <c r="A13" s="21">
         <v>9</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
@@ -1763,19 +1763,19 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>10</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F14" t="s">
@@ -1783,19 +1783,19 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20">
+      <c r="A15" s="21">
         <v>11</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F15" t="s">
@@ -1803,19 +1803,19 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20">
+      <c r="A16" s="21">
         <v>12</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
@@ -1823,19 +1823,19 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20">
+      <c r="A17" s="21">
         <v>13</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
@@ -1843,19 +1843,19 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20">
+      <c r="A18" s="21">
         <v>14</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F18" t="s">
@@ -1863,19 +1863,19 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20">
+      <c r="A19" s="21">
         <v>15</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
@@ -1883,19 +1883,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20">
+      <c r="A20" s="21">
         <v>16</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
@@ -1903,19 +1903,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20">
+      <c r="A21" s="21">
         <v>17</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F21" t="s">
@@ -1923,19 +1923,19 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20">
+      <c r="A22" s="21">
         <v>18</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
@@ -1943,19 +1943,19 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20">
+      <c r="A23" s="21">
         <v>19</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
@@ -1963,19 +1963,19 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20">
+      <c r="A24" s="21">
         <v>20</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
@@ -2009,56 +2009,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2067,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2084,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2101,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2118,10 +2118,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2135,10 +2135,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2148,29 +2148,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2178,29 +2178,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2234,10 +2234,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2256,10 +2256,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2278,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4737334-36BD-49B8-8EA4-2940D9929631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198DD0E-2503-452E-A05C-60E59C12465B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -85,6 +87,125 @@
     <t>1.3|1.6|1.9|2.4|2.9|3.4|4.2|5|5.8</t>
   </si>
   <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>第1位</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>第2-3位</t>
+  </si>
+  <si>
+    <t>第4-5位</t>
+  </si>
+  <si>
+    <t>第6-7位</t>
+  </si>
+  <si>
+    <t>第8-11位</t>
+  </si>
+  <si>
+    <t>第12位</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>通用或多个英雄</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>装备部位
+01=武器;03=头饰;05=肩甲;07=上装;09=下装;11=鞋子;13=项链;15=耳环;17=手镯;19=戒指</t>
+  </si>
+  <si>
+    <t>装备品质
+01=绿色;03=蓝色;05=紫色;07=金色;09=橙色;11=红色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+编号0001-9999</t>
+  </si>
+  <si>
+    <t>物品等级档位
+1=最低等级；2=次低等级；3=平均等级；4=次高等级；5=最高等级</t>
+  </si>
+  <si>
+    <t>文森特</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>凯瑟琳</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>第4-8位:道具编号</t>
+  </si>
+  <si>
+    <t>第9-10位:子分类辨识</t>
+  </si>
+  <si>
+    <t>第11-12位:品质辨识</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>消耗品</t>
+  </si>
+  <si>
+    <t>道具编号00001-99999</t>
+  </si>
+  <si>
+    <t>01=经验增加;02=生命回复</t>
+  </si>
+  <si>
+    <t>道具品质
+00=白色;01=绿色;
+02=蓝色;03=紫色;
+04=金色;05=橙色;
+06=红色</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>装备材料</t>
+  </si>
+  <si>
+    <t>数值类</t>
+  </si>
+  <si>
+    <t>非数值类</t>
+  </si>
+  <si>
     <t>太祖长拳</t>
   </si>
   <si>
@@ -170,273 +291,288 @@
   </si>
   <si>
     <t>狂风无相，来去无踪。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">目无全牛，游刃有余。
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>要知此拳出何处，名为太祖下南唐。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>剑起惊鸿去，剑落雁复还。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一点青芒先到，随后指落如雨。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>白练川上清风疾，脚踏飞云穿空去。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>剃发挂单，削枪成棍。太极阴阳，尽归八卦。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>水中生莲接天碧，藕断丝连劲无穷。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指如疾风~势如闪电~</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拳无拳，意无意，无拳之中是真意。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>清虚脱换，无碍无障，洗髓易筋，当如是也。 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>天下武功樊笼，藏天山折梅手。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>天长地久，不老长春；八荒六合，唯我独尊。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>动无常则，若危若安。进止难期，若往若还。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破石碎玉，无坚不摧。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>吾心不止，刀刀烈火。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>手是两扇门，全靠脚踢人~</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开碑裂石，胜似刀斧。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>释迦如来，摩诃无量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>廿八降龙掌，天下妙无双。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>心游万仞，剑破万法。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>以气御剑，化气为剑；剑气相御，方是正解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>困穷之敌，击疲之寇，迅风振秋叶，须臾尽扫。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一脚既出，天崩地裂；三界灭绝，是为天残。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>轻拢慢捻抹复挑，落英散尽空寥寥。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>起如风，落如钉，力劲遒。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>剑光挥夜电，马汗昼成泥。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>劲来无形，如刀似剑。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>taizuchangquan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>动画名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AnimationName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>paodingjieniu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>fengshentui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>yanhuijianfa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>qingmangzhi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>feiyundu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>wulangbaguagun</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>lianhuazhang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>kuihuadianxueshou</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>saoyetui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>zuiquan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>suiyuquan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>foshanwuyingjiao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>tanzhishengong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>luanpifengjianfa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>lieyandaofa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>yujianshu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shierlutantui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>kaibeishou</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>xianglongzhang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>dugujiujian</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>lingboweibu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>bahuangliuhe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>tiancanjiao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>yijinjing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功夫名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>KongfuName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>出售价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>rulaishenzhang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>tianshanzhemeishou</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>liumaishenjian</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -462,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,8 +611,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -494,6 +636,131 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -518,23 +785,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,790 +1181,790 @@
     <col min="5" max="5" width="39.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
+    <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>108</v>
+      <c r="G4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>1001</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1002</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>1003</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>1004</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>1005</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>1006</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>1007</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>1008</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>1009</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>1010</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>1011</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>1012</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>1013</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>1014</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>1015</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>1016</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>1017</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>1018</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>1019</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="6">
         <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>1020</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="6">
         <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>1021</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="D25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>1023</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>1025</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="3">
+      <c r="G29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>1022</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>1026</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="D30" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>1023</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3" t="s">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="D31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>1024</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>1028</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>1025</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>1026</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>1027</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>1028</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="D32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="6">
         <v>3000</v>
       </c>
     </row>
@@ -1645,8 +1972,346 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="6" max="10" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L13:O17"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="H4:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Kongfu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9126E-79DF-4606-B48D-0BFFA4C31A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25770" windowHeight="13880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,14 +479,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,151 +516,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,204 +538,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1029,253 +712,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,49 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,65 +743,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1687,890 +1090,888 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.78181818181818" customWidth="1"/>
-    <col min="2" max="2" width="16.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="11.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="27.6636363636364" customWidth="1"/>
-    <col min="5" max="5" width="39.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="25.5545454545455" customWidth="1"/>
-    <col min="8" max="8" width="9" style="19"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="14.75" spans="1:8">
-      <c r="A5" s="19">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1001</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>1002</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="19">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>1003</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="8" ht="14.75" spans="1:8">
-      <c r="A8" s="19">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>1004</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="9" ht="14.75" spans="1:8">
-      <c r="A9" s="19">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>1005</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="19">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>1006</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="19">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>1007</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="12" ht="14.75" spans="1:8">
-      <c r="A12" s="19">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>1008</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="13" ht="14.75" spans="1:8">
-      <c r="A13" s="19">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>1009</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="14" ht="14.75" spans="1:8">
-      <c r="A14" s="19">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>1010</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="15" ht="14.75" spans="1:8">
-      <c r="A15" s="19">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>1011</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="16" ht="14.75" spans="1:8">
-      <c r="A16" s="19">
-        <v>1012</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="17" ht="14.75" spans="1:8">
-      <c r="A17" s="19">
-        <v>1013</v>
-      </c>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="18" ht="14.75" spans="1:8">
-      <c r="A18" s="19">
-        <v>1014</v>
-      </c>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="19" ht="14.75" spans="1:8">
-      <c r="A19" s="19">
-        <v>1015</v>
-      </c>
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="20" ht="14.75" spans="1:8">
-      <c r="A20" s="19">
-        <v>1016</v>
-      </c>
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="21" ht="14.75" spans="1:8">
-      <c r="A21" s="19">
-        <v>1017</v>
-      </c>
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="22" ht="14.75" spans="1:8">
-      <c r="A22" s="19">
-        <v>1018</v>
-      </c>
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="23" ht="14.75" spans="1:8">
-      <c r="A23" s="19">
-        <v>1019</v>
-      </c>
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="24" ht="14.75" spans="1:8">
-      <c r="A24" s="19">
-        <v>1020</v>
-      </c>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>3001</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" ht="14.75" spans="1:8">
-      <c r="A25" s="19">
-        <v>1021</v>
-      </c>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>3002</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="26" ht="14.75" spans="1:8">
-      <c r="A26" s="19">
-        <v>1022</v>
-      </c>
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>3003</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" ht="14.75" spans="1:8">
-      <c r="A27" s="19">
-        <v>1023</v>
-      </c>
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>3004</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" ht="14.75" spans="1:8">
-      <c r="A28" s="19">
-        <v>1024</v>
-      </c>
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>3005</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="29" ht="14.75" spans="1:8">
-      <c r="A29" s="19">
-        <v>1025</v>
-      </c>
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>3006</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="30" ht="14.75" spans="1:8">
-      <c r="A30" s="19">
-        <v>1026</v>
-      </c>
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>3007</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="31" ht="14.75" spans="1:8">
-      <c r="A31" s="19">
-        <v>1027</v>
-      </c>
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>3008</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="32" ht="14.75" spans="1:8">
-      <c r="A32" s="19">
-        <v>1028</v>
-      </c>
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>3009</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="5">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.1090909090909" customWidth="1"/>
-    <col min="6" max="10" width="24.6636363636364" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="6" max="10" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="14.5" spans="2:10">
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
@@ -2589,7 +1990,7 @@
       <c r="G3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="11" t="s">
         <v>116</v>
       </c>
       <c r="I3" s="12"/>
@@ -2597,119 +1998,119 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="2:10">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" ht="14.5" spans="2:10">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" ht="14.5" spans="2:10">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" ht="14.5" spans="2:10">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="F6" s="17"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" ht="14.5" spans="2:10">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="F7" s="17"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" ht="14.5" spans="2:10">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="F8" s="17"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
+      <c r="F9" s="18"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>110</v>
       </c>
@@ -2725,145 +2126,140 @@
       <c r="F12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B13" s="4" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="F16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
@@ -2873,26 +2269,28 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="G4:G9"/>
     <mergeCell ref="J4:J9"/>
+    <mergeCell ref="H4:I9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="L13:O17"/>
-    <mergeCell ref="H4:I9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -85,7 +85,7 @@
     <t>要知此拳出何处，名为太祖下南唐。</t>
   </si>
   <si>
-    <t>1.1|1.2|1.3|1.5|1.7|1.9|2.2|2.5|2.8</t>
+    <t>1.15;1.25;1.35;1.6;1.8;2;2.3;2.6;2.9</t>
   </si>
   <si>
     <t>200;500;1500;4500;18000;90000;540000;4320000;43200000</t>
@@ -100,6 +100,9 @@
     <t>目无全牛，游刃有余。</t>
   </si>
   <si>
+    <t>1.1;1.2;1.3;1.5;1.7;1.9;2.2;2.5;2.8</t>
+  </si>
+  <si>
     <t>paodingjieniu</t>
   </si>
   <si>
@@ -193,7 +196,7 @@
     <t>破石碎玉，无坚不摧。</t>
   </si>
   <si>
-    <t>1.2|1.4|1.6|1.9|2.2|2.5|3|3.5|4</t>
+    <t>1.2;1.3;1.4;1.7;2;2.2;2.6;3;3.4</t>
   </si>
   <si>
     <t>suiyuquan</t>
@@ -214,6 +217,9 @@
     <t>轻拢慢捻抹复挑，落英散尽空寥寥。</t>
   </si>
   <si>
+    <t>1.3;1.4;1.5;1.8;2.1;2.3;2.7;3.1;3.5</t>
+  </si>
+  <si>
     <t>tanzhishengong</t>
   </si>
   <si>
@@ -271,7 +277,7 @@
     <t>释迦如来，摩诃无量。</t>
   </si>
   <si>
-    <t>1.3|1.6|1.9|2.4|2.9|3.4|4.2|5|5.8</t>
+    <t>1.4;1.5;1.6;2;2.4;2.6;3.4;3.9;4.4</t>
   </si>
   <si>
     <t>rulaishenzhang</t>
@@ -281,6 +287,9 @@
   </si>
   <si>
     <t>廿八降龙掌，天下妙无双。</t>
+  </si>
+  <si>
+    <t>1.5;1.6;1.7;2.1;2.5;2.7;3.6;4.1;4.6</t>
   </si>
   <si>
     <t>xianglongzhang</t>
@@ -375,23 +384,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,9 +422,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,25 +459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,28 +469,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -482,8 +483,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,15 +507,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +519,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -540,187 +549,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,70 +758,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,16 +789,69 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,137 +873,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,16 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1371,7 +1371,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1383,7 +1383,7 @@
     <col min="5" max="5" width="39.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="59.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1492,730 +1492,730 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="3">
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3">
-        <v>1004</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3">
-        <v>1005</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3">
-        <v>1006</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3">
-        <v>1008</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3">
-        <v>1009</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3">
-        <v>1010</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3">
-        <v>1011</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
-      </c>
-    </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>2001</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="6">
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>2002</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="6">
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>2003</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="6">
+      <c r="E18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="6">
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="6">
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="6">
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="6">
-        <v>800</v>
-      </c>
-    </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>3001</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="2">
         <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>3003</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
+        <v>3004</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="D27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3">
-        <v>3003</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="5" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>3005</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>3006</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>3007</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="D30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3">
-        <v>3004</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="3" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>3008</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="3">
-        <v>3005</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="3" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>3009</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3">
-        <v>3006</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3">
-        <v>3007</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3">
-        <v>3008</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3">
-        <v>3009</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>84</v>
+      <c r="D32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="2">
         <v>3000</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -88,7 +88,7 @@
     <t>1.15;1.25;1.35;1.6;1.8;2;2.3;2.6;2.9</t>
   </si>
   <si>
-    <t>200;500;1500;4500;18000;90000;540000;4320000;43200000</t>
+    <t>200;400;800;2000;5000;15000;45000;180000</t>
   </si>
   <si>
     <t>taizuchangquan</t>
@@ -384,32 +384,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,28 +413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -468,7 +422,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -483,16 +437,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,9 +452,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,6 +504,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -549,187 +549,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,36 +759,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -804,25 +774,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,6 +806,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -855,16 +831,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,7 +1371,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1793,7 +1793,7 @@
       <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1819,7 +1819,7 @@
       <c r="E17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -1845,7 +1845,7 @@
       <c r="E18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -1871,7 +1871,7 @@
       <c r="E19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1897,7 +1897,7 @@
       <c r="E20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -1923,7 +1923,7 @@
       <c r="E21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -1949,7 +1949,7 @@
       <c r="E22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -1975,7 +1975,7 @@
       <c r="E23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="5" t="s">

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -85,7 +85,7 @@
     <t>要知此拳出何处，名为太祖下南唐。</t>
   </si>
   <si>
-    <t>1.15;1.25;1.35;1.6;1.8;2;2.3;2.6;2.9</t>
+    <t>1.2;1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5</t>
   </si>
   <si>
     <t>200;400;800;2000;5000;15000;45000;180000</t>
@@ -100,9 +100,6 @@
     <t>目无全牛，游刃有余。</t>
   </si>
   <si>
-    <t>1.1;1.2;1.3;1.5;1.7;1.9;2.2;2.5;2.8</t>
-  </si>
-  <si>
     <t>paodingjieniu</t>
   </si>
   <si>
@@ -196,7 +193,7 @@
     <t>破石碎玉，无坚不摧。</t>
   </si>
   <si>
-    <t>1.2;1.3;1.4;1.7;2;2.2;2.6;3;3.4</t>
+    <t>1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8</t>
   </si>
   <si>
     <t>suiyuquan</t>
@@ -217,9 +214,6 @@
     <t>轻拢慢捻抹复挑，落英散尽空寥寥。</t>
   </si>
   <si>
-    <t>1.3;1.4;1.5;1.8;2.1;2.3;2.7;3.1;3.5</t>
-  </si>
-  <si>
     <t>tanzhishengong</t>
   </si>
   <si>
@@ -277,7 +271,7 @@
     <t>释迦如来，摩诃无量。</t>
   </si>
   <si>
-    <t>1.4;1.5;1.6;2;2.4;2.6;3.4;3.9;4.4</t>
+    <t>1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8;3.1</t>
   </si>
   <si>
     <t>rulaishenzhang</t>
@@ -287,9 +281,6 @@
   </si>
   <si>
     <t>廿八降龙掌，天下妙无双。</t>
-  </si>
-  <si>
-    <t>1.5;1.6;1.7;2.1;2.5;2.7;3.6;4.1;4.6</t>
   </si>
   <si>
     <t>xianglongzhang</t>
@@ -385,6 +376,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -392,7 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,9 +411,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,30 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -452,15 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,52 +518,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -549,6 +540,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,175 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,50 +749,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,11 +775,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,7 +786,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,16 +816,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,7 +1362,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1381,7 +1372,7 @@
     <col min="3" max="3" width="7.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="39.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="59.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -1531,13 +1522,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>200</v>
@@ -1548,22 +1539,22 @@
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>200</v>
@@ -1574,22 +1565,22 @@
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H8" s="2">
         <v>200</v>
@@ -1600,22 +1591,22 @@
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H9" s="2">
         <v>200</v>
@@ -1626,22 +1617,22 @@
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="H10" s="2">
         <v>200</v>
@@ -1652,22 +1643,22 @@
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H11" s="2">
         <v>200</v>
@@ -1678,22 +1669,22 @@
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H12" s="2">
         <v>200</v>
@@ -1704,13 +1695,13 @@
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -1719,7 +1710,7 @@
         <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="2">
         <v>200</v>
@@ -1730,22 +1721,22 @@
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H14" s="2">
         <v>200</v>
@@ -1756,22 +1747,22 @@
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H15" s="2">
         <v>200</v>
@@ -1782,22 +1773,22 @@
         <v>2001</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H16" s="4">
         <v>800</v>
@@ -1808,22 +1799,22 @@
         <v>2002</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H17" s="4">
         <v>800</v>
@@ -1834,22 +1825,22 @@
         <v>2003</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="H18" s="4">
         <v>800</v>
@@ -1860,22 +1851,22 @@
         <v>2004</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="4">
         <v>800</v>
@@ -1886,22 +1877,22 @@
         <v>2005</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H20" s="4">
         <v>800</v>
@@ -1912,22 +1903,22 @@
         <v>2006</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H21" s="4">
         <v>800</v>
@@ -1938,22 +1929,22 @@
         <v>2007</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="H22" s="4">
         <v>800</v>
@@ -1964,22 +1955,22 @@
         <v>2008</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="H23" s="4">
         <v>800</v>
@@ -1990,22 +1981,22 @@
         <v>3001</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="H24" s="2">
         <v>3000</v>
@@ -2016,22 +2007,22 @@
         <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H25" s="2">
         <v>3000</v>
@@ -2042,22 +2033,22 @@
         <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H26" s="2">
         <v>3000</v>
@@ -2068,22 +2059,22 @@
         <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H27" s="2">
         <v>3000</v>
@@ -2094,22 +2085,22 @@
         <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H28" s="2">
         <v>3000</v>
@@ -2120,22 +2111,22 @@
         <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2">
         <v>3000</v>
@@ -2146,22 +2137,22 @@
         <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H30" s="2">
         <v>3000</v>
@@ -2172,22 +2163,22 @@
         <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H31" s="2">
         <v>3000</v>
@@ -2198,22 +2189,22 @@
         <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H32" s="2">
         <v>3000</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -64,7 +64,7 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>AtkRange</t>
+    <t>AtkRate</t>
   </si>
   <si>
     <t>UpgradeExp</t>
@@ -355,9 +355,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -376,7 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,8 +390,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,6 +437,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -412,29 +451,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,10 +497,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,60 +512,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -540,37 +540,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,139 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,8 +752,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,9 +814,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,32 +828,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,31 +846,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,7 +1362,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,9 @@
     <t>出售价格</t>
   </si>
   <si>
+    <t>图标名称</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>Price</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
     <t>太祖长拳</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>taizuchangquan</t>
   </si>
   <si>
+    <t>TaiZuChangQuan</t>
+  </si>
+  <si>
     <t>庖丁解牛</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t>paodingjieniu</t>
   </si>
   <si>
+    <t>PaoDingJieNiu</t>
+  </si>
+  <si>
     <t>风神腿</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t>fengshentui</t>
   </si>
   <si>
+    <t>FengShenTui</t>
+  </si>
+  <si>
     <t>雁回剑法</t>
   </si>
   <si>
@@ -121,6 +136,9 @@
     <t>yanhuijianfa</t>
   </si>
   <si>
+    <t>YanHuiJianFa</t>
+  </si>
+  <si>
     <t>青芒指</t>
   </si>
   <si>
@@ -130,6 +148,9 @@
     <t>qingmangzhi</t>
   </si>
   <si>
+    <t>QingMangZhi</t>
+  </si>
+  <si>
     <t>飞云渡</t>
   </si>
   <si>
@@ -139,6 +160,9 @@
     <t>feiyundu</t>
   </si>
   <si>
+    <t>FeiYunDu</t>
+  </si>
+  <si>
     <t>五郎八卦棍</t>
   </si>
   <si>
@@ -148,6 +172,9 @@
     <t>wulangbaguagun</t>
   </si>
   <si>
+    <t>WuLangGun</t>
+  </si>
+  <si>
     <t>莲花掌</t>
   </si>
   <si>
@@ -157,6 +184,9 @@
     <t>lianhuazhang</t>
   </si>
   <si>
+    <t>LianHuaZhi</t>
+  </si>
+  <si>
     <t>葵花点穴手</t>
   </si>
   <si>
@@ -166,6 +196,9 @@
     <t>kuihuadianxueshou</t>
   </si>
   <si>
+    <t>KuiHuaShou</t>
+  </si>
+  <si>
     <t>扫叶腿</t>
   </si>
   <si>
@@ -175,6 +208,9 @@
     <t>saoyetui</t>
   </si>
   <si>
+    <t>SaoYeTui</t>
+  </si>
+  <si>
     <t>醉拳</t>
   </si>
   <si>
@@ -184,6 +220,9 @@
     <t>zuiquan</t>
   </si>
   <si>
+    <t>ZuiQuan</t>
+  </si>
+  <si>
     <t>碎玉拳</t>
   </si>
   <si>
@@ -199,6 +238,9 @@
     <t>suiyuquan</t>
   </si>
   <si>
+    <t>SuiYuQuan</t>
+  </si>
+  <si>
     <t>无影脚</t>
   </si>
   <si>
@@ -208,6 +250,9 @@
     <t>foshanwuyingjiao</t>
   </si>
   <si>
+    <t>WuYingJiao</t>
+  </si>
+  <si>
     <t>弹指神功</t>
   </si>
   <si>
@@ -217,6 +262,9 @@
     <t>tanzhishengong</t>
   </si>
   <si>
+    <t>TanZhiShenGong</t>
+  </si>
+  <si>
     <t>乱披风剑法</t>
   </si>
   <si>
@@ -226,6 +274,9 @@
     <t>luanpifengjianfa</t>
   </si>
   <si>
+    <t>LuanPiJian</t>
+  </si>
+  <si>
     <t>烈焰刀法</t>
   </si>
   <si>
@@ -235,6 +286,9 @@
     <t>lieyandaofa</t>
   </si>
   <si>
+    <t>LieYanDao</t>
+  </si>
+  <si>
     <t>御剑术</t>
   </si>
   <si>
@@ -244,6 +298,9 @@
     <t>yujianshu</t>
   </si>
   <si>
+    <t>YuJianShu</t>
+  </si>
+  <si>
     <t>十二路弹腿</t>
   </si>
   <si>
@@ -253,6 +310,9 @@
     <t>shierlutantui</t>
   </si>
   <si>
+    <t>ShiErLuTanTui</t>
+  </si>
+  <si>
     <t>开碑手</t>
   </si>
   <si>
@@ -262,6 +322,9 @@
     <t>kaibeishou</t>
   </si>
   <si>
+    <t>KaiBeiShou</t>
+  </si>
+  <si>
     <t>如来神掌</t>
   </si>
   <si>
@@ -277,6 +340,9 @@
     <t>rulaishenzhang</t>
   </si>
   <si>
+    <t>RuLaiZhang</t>
+  </si>
+  <si>
     <t>降龙掌</t>
   </si>
   <si>
@@ -286,6 +352,9 @@
     <t>xianglongzhang</t>
   </si>
   <si>
+    <t>XiangLongZhang</t>
+  </si>
+  <si>
     <t>六脉神剑</t>
   </si>
   <si>
@@ -295,6 +364,9 @@
     <t>liumaishenjian</t>
   </si>
   <si>
+    <t>LiuMaiShenJian</t>
+  </si>
+  <si>
     <t>独孤九剑</t>
   </si>
   <si>
@@ -304,6 +376,9 @@
     <t>dugujiujian</t>
   </si>
   <si>
+    <t>DuGuJiuJian</t>
+  </si>
+  <si>
     <t>凌波微步</t>
   </si>
   <si>
@@ -313,6 +388,9 @@
     <t>lingboweibu</t>
   </si>
   <si>
+    <t>LinBoWeiBu</t>
+  </si>
+  <si>
     <t>八荒六合</t>
   </si>
   <si>
@@ -322,6 +400,9 @@
     <t>bahuangliuhe</t>
   </si>
   <si>
+    <t>BaHuangLiuHe</t>
+  </si>
+  <si>
     <t>天残脚</t>
   </si>
   <si>
@@ -331,6 +412,9 @@
     <t>tiancanjiao</t>
   </si>
   <si>
+    <t>TianCanJiao</t>
+  </si>
+  <si>
     <t>天山折梅手</t>
   </si>
   <si>
@@ -340,6 +424,9 @@
     <t>tianshanzhemeishou</t>
   </si>
   <si>
+    <t>TianShanZheMeiShou</t>
+  </si>
+  <si>
     <t>易筋经</t>
   </si>
   <si>
@@ -347,6 +434,9 @@
   </si>
   <si>
     <t>yijinjing</t>
+  </si>
+  <si>
+    <t>YiJinJIng</t>
   </si>
 </sst>
 </file>
@@ -356,8 +446,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -376,25 +466,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,11 +503,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,45 +571,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,29 +608,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -540,187 +630,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,8 +842,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,6 +868,47 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,67 +928,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +942,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,16 +954,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,115 +972,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,28 +1447,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.1272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.3727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.8727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.3727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.2727272727273" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,811 +1494,907 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>2001</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H16" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>2002</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H17" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>2003</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H18" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>2004</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H19" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>2005</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H20" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>2006</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H21" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>2007</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H22" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>2008</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H23" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>3001</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H24" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>3002</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H25" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>3003</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H26" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>3004</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="H27" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>3005</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="H28" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>3006</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H29" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>3007</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="H30" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>3008</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H31" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>3009</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="H32" s="2">
         <v>3000</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17180"/>
+    <workbookView windowWidth="17140" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <t>lianhuazhang</t>
   </si>
   <si>
-    <t>LianHuaZhi</t>
+    <t>LianHuaZhang</t>
   </si>
   <si>
     <t>葵花点穴手</t>
@@ -436,7 +436,7 @@
     <t>yijinjing</t>
   </si>
   <si>
-    <t>YiJinJIng</t>
+    <t>YiJinJing</t>
   </si>
 </sst>
 </file>
@@ -444,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -466,7 +466,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,7 +510,29 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -503,44 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -550,7 +564,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -559,35 +573,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,6 +593,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -630,187 +630,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,6 +835,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,17 +879,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,10 +942,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,133 +954,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,10 +1449,10 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17140" windowHeight="13720"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -465,14 +465,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -487,69 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +511,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -578,6 +525,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -586,11 +540,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,6 +600,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -630,187 +630,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,46 +839,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,17 +869,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,16 +921,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,133 +954,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,27 +1449,27 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.37272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.1272727272727" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.3727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.8727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.3727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.37272727272727" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.2727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.275" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1637,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>31</v>
@@ -1666,7 +1666,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -1695,7 +1695,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>39</v>
@@ -1724,7 +1724,7 @@
         <v>42</v>
       </c>
       <c r="H9" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
@@ -1753,7 +1753,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>47</v>
@@ -1782,7 +1782,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>51</v>
@@ -1811,7 +1811,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>55</v>
@@ -1840,7 +1840,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>59</v>
@@ -1869,7 +1869,7 @@
         <v>62</v>
       </c>
       <c r="H14" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
@@ -1898,7 +1898,7 @@
         <v>66</v>
       </c>
       <c r="H15" s="2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>67</v>
@@ -1927,7 +1927,7 @@
         <v>72</v>
       </c>
       <c r="H16" s="4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>73</v>
@@ -1956,7 +1956,7 @@
         <v>76</v>
       </c>
       <c r="H17" s="4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>77</v>
@@ -1985,7 +1985,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>81</v>
@@ -2014,7 +2014,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>85</v>
@@ -2043,7 +2043,7 @@
         <v>88</v>
       </c>
       <c r="H20" s="4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>89</v>
@@ -2072,7 +2072,7 @@
         <v>92</v>
       </c>
       <c r="H21" s="4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>93</v>
@@ -2101,7 +2101,7 @@
         <v>96</v>
       </c>
       <c r="H22" s="4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>97</v>
@@ -2130,7 +2130,7 @@
         <v>100</v>
       </c>
       <c r="H23" s="4">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>101</v>
@@ -2159,7 +2159,7 @@
         <v>106</v>
       </c>
       <c r="H24" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>107</v>
@@ -2188,7 +2188,7 @@
         <v>110</v>
       </c>
       <c r="H25" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>111</v>
@@ -2217,7 +2217,7 @@
         <v>114</v>
       </c>
       <c r="H26" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>115</v>
@@ -2246,7 +2246,7 @@
         <v>118</v>
       </c>
       <c r="H27" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>119</v>
@@ -2275,7 +2275,7 @@
         <v>122</v>
       </c>
       <c r="H28" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>123</v>
@@ -2304,7 +2304,7 @@
         <v>126</v>
       </c>
       <c r="H29" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>127</v>
@@ -2333,7 +2333,7 @@
         <v>130</v>
       </c>
       <c r="H30" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>131</v>
@@ -2362,7 +2362,7 @@
         <v>134</v>
       </c>
       <c r="H31" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>135</v>
@@ -2391,7 +2391,7 @@
         <v>138</v>
       </c>
       <c r="H32" s="2">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>139</v>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -444,9 +444,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -465,9 +465,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,29 +518,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,37 +547,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -563,32 +579,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,13 +603,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,25 +624,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,13 +762,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,79 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,61 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,17 +845,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,11 +871,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,11 +912,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,40 +942,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,137 +960,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,6 +1105,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1452,7 +1464,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1731,31 +1743,31 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>1006</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="2">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="4">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1847,31 +1859,31 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>1010</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="2">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="4">
+        <v>25</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1905,28 +1917,28 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>2001</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="6">
         <v>50</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1934,28 +1946,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>2002</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="6">
         <v>50</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -1963,28 +1975,28 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>2003</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="6">
         <v>50</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -1992,28 +2004,28 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>2004</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="6">
         <v>50</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -2021,28 +2033,28 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>2005</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="6">
         <v>50</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -2050,28 +2062,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>2006</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="6">
         <v>50</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -2079,28 +2091,28 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>2007</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="6">
         <v>50</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -2108,28 +2120,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>2008</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="6">
         <v>50</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -2253,31 +2265,31 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>3005</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>150</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>123</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -445,9 +445,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -465,75 +465,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,22 +478,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,16 +497,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,6 +519,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -608,6 +601,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -636,187 +636,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,17 +841,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,17 +875,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,9 +895,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,6 +909,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,10 +948,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,133 +960,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,7 +1464,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:I28"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1946,31 +1946,31 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>2002</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <v>50</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="4" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -444,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -465,7 +465,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -481,16 +487,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -504,69 +509,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,9 +532,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,8 +578,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,61 +636,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,121 +798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,32 +845,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,11 +863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,8 +892,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,16 +927,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,133 +960,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,7 +1464,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -444,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -466,14 +466,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,23 +516,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,47 +538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +555,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,6 +569,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -602,14 +601,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,67 +636,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,115 +780,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,15 +847,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,35 +877,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,6 +900,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -942,16 +928,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,137 +966,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,6 +1117,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1464,7 +1476,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34:H34"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1946,31 +1958,31 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="8">
         <v>2002</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="8">
         <v>50</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="8" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
+++ b/Tables/Sources/gameplay/Kongfu/KongfuConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -151,18 +151,6 @@
     <t>QingMangZhi</t>
   </si>
   <si>
-    <t>飞云渡</t>
-  </si>
-  <si>
-    <t>白练川上清风疾，脚踏飞云穿空去。</t>
-  </si>
-  <si>
-    <t>feiyundu</t>
-  </si>
-  <si>
-    <t>FeiYunDu</t>
-  </si>
-  <si>
     <t>五郎八卦棍</t>
   </si>
   <si>
@@ -199,18 +187,6 @@
     <t>KuiHuaShou</t>
   </si>
   <si>
-    <t>扫叶腿</t>
-  </si>
-  <si>
-    <t>困穷之敌，击疲之寇，迅风振秋叶，须臾尽扫。</t>
-  </si>
-  <si>
-    <t>saoyetui</t>
-  </si>
-  <si>
-    <t>SaoYeTui</t>
-  </si>
-  <si>
     <t>醉拳</t>
   </si>
   <si>
@@ -377,18 +353,6 @@
   </si>
   <si>
     <t>DuGuJiuJian</t>
-  </si>
-  <si>
-    <t>凌波微步</t>
-  </si>
-  <si>
-    <t>动无常则，若危若安。进止难期，若往若还。</t>
-  </si>
-  <si>
-    <t>lingboweibu</t>
-  </si>
-  <si>
-    <t>LinBoWeiBu</t>
   </si>
   <si>
     <t>八荒六合</t>
@@ -444,10 +408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -465,23 +429,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,21 +476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +484,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,15 +513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,10 +528,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,31 +559,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,12 +588,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -642,25 +600,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,157 +768,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,22 +813,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,17 +842,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,22 +883,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,10 +912,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,137 +924,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,12 +1075,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1471,12 +1423,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1755,37 +1707,37 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
-        <v>1006</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="4">
-        <v>25</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="2">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>48</v>
@@ -1814,7 +1766,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>52</v>
@@ -1843,7 +1795,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>56</v>
@@ -1872,85 +1824,85 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>1010</v>
+        <v>2001</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="4">
-        <v>25</v>
-      </c>
-      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="2">
-        <v>25</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>67</v>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="6">
+        <v>50</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <v>50</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1958,57 +1910,57 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="4">
         <v>50</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6">
-        <v>2003</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>50</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -2016,28 +1968,28 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6">
-        <v>2004</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <v>50</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -2045,28 +1997,28 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <v>50</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -2074,28 +2026,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <v>50</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -2103,78 +2055,78 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="2">
+        <v>3001</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="6">
-        <v>50</v>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="2">
+        <v>150</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>3002</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="6">
-        <v>50</v>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="2">
+        <v>150</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2191,19 +2143,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>25</v>
@@ -2220,19 +2172,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -2249,19 +2201,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -2277,49 +2229,49 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4">
-        <v>3005</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="2">
+        <v>3008</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="2">
         <v>150</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -2332,93 +2284,6 @@
       </c>
       <c r="I29" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2">
-        <v>3007</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="2">
-        <v>150</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2">
-        <v>3008</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="2">
-        <v>150</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2">
-        <v>3009</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="2">
-        <v>150</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
